--- a/biology/Botanique/Ismene_×_deflexa/Ismene_×_deflexa.xlsx
+++ b/biology/Botanique/Ismene_×_deflexa/Ismene_×_deflexa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ismene_%C3%97_deflexa</t>
+          <t>Ismene_×_deflexa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ismene × deflexa est une espèce de plante à fleurs hybride de la famille des Amaryllidacées . Cette espèce a été décrite pour la première fois par le botaniste britannique William Herbert  en 1839 [2],[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ismene × deflexa est une espèce de plante à fleurs hybride de la famille des Amaryllidacées . Cette espèce a été décrite pour la première fois par le botaniste britannique William Herbert  en 1839 ,.
 Cet hybride a comme parents  Ismene longipetala × Ismene narcissiflora.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ismene_%C3%97_deflexa</t>
+          <t>Ismene_×_deflexa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ismene_%C3%97_deflexa</t>
+          <t>Ismene_×_deflexa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,14 +552,50 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ a b et c (en) Référence POWO :  Ismene × deflexa   Herb. (consulté le 24 juin 2023)
 ↑ The Plant List, « Ismene × deflexa », 2010 (consulté le 7 juin 2013)
-(vi) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en vietnamien intitulé « Ismene × deflexa » (voir la liste des auteurs).
-voir aussi
-Ismene longipetala
+(vi) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en vietnamien intitulé « Ismene × deflexa » (voir la liste des auteurs).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ismene_×_deflexa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ismene_%C3%97_deflexa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>voir aussi</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ismene longipetala
 Ismene narcissiflora</t>
         </is>
       </c>
